--- a/banks/surety/catalogs/Surety_MCH_OperationList.xlsx
+++ b/banks/surety/catalogs/Surety_MCH_OperationList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266B9827-6374-0D4F-9FC4-217A26A76899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E681EE-6E29-8A4A-9342-8F05682D2D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34580" windowHeight="18720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="3140" windowWidth="34580" windowHeight="18720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="IM VI nonaccsensit passiv corpo" sheetId="8" r:id="rId8"/>
     <sheet name="IM VII full rights passive" sheetId="9" r:id="rId9"/>
     <sheet name="IM Mask VIII RO rights" sheetId="10" r:id="rId10"/>
+    <sheet name="IM IX" sheetId="12" r:id="rId11"/>
+    <sheet name="IM X" sheetId="13" r:id="rId12"/>
+    <sheet name="IM XI" sheetId="14" r:id="rId13"/>
+    <sheet name="IM XII" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Operation list'!$A$1:$W$2</definedName>
@@ -30,7 +34,7 @@
     <definedName name="_Toc442359491" localSheetId="1">'Operation list'!#REF!</definedName>
     <definedName name="_Toc442359492" localSheetId="1">'Operation list'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="126">
   <si>
     <t>Author:</t>
   </si>
@@ -393,6 +397,39 @@
   </si>
   <si>
     <t>Request to edit contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask X in OLB created user – passive account sensitive operations </t>
+  </si>
+  <si>
+    <t>Request for bill payment – iPay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask XI in OLB created user – active account sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init mask XII with rights for user administration in OLB </t>
+  </si>
+  <si>
+    <t>View user</t>
+  </si>
+  <si>
+    <t>Request to create new user</t>
+  </si>
+  <si>
+    <t>Request to delete user</t>
+  </si>
+  <si>
+    <t>Request to edit user</t>
+  </si>
+  <si>
+    <t>Request to block/activate user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request to reset user password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask IX in OLB created user non-sensitive operations </t>
   </si>
 </sst>
 </file>
@@ -403,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -435,6 +472,13 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -827,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -996,6 +1040,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1467,51 +1517,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="79">
         <v>42895</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1527,469 +1577,469 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="64"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="64"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="64"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -2062,7 +2112,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2107,34 +2157,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2568,6 +2618,2450 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437C495-E018-2144-B585-FFAC650A5CA6}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="112">
+      <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32">
+      <c r="A5" s="39">
+        <v>299</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="64">
+      <c r="A6" s="39">
+        <v>880</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="64">
+      <c r="A7" s="39">
+        <v>881</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="64">
+      <c r="A8" s="39">
+        <v>882</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:12" ht="32">
+      <c r="A11" s="29">
+        <v>600</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="56"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="1:12" ht="48">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305BB23-97BB-C84C-B54D-2BA6F05824EF}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="144">
+      <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="48">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="48">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="80">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="32">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="48">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="56"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="64">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="14" customHeight="1">
+      <c r="A17" s="39">
+        <v>831</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>832</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39">
+        <v>833</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>313</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>316</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>318</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>317</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29">
+        <v>250</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29">
+        <v>371</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="29">
+        <v>372</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>373</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="56"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="1:12" ht="48">
+      <c r="A32" s="60">
+        <v>222</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="32">
+      <c r="A33" s="60">
+        <v>675</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6" ht="64">
+      <c r="A34" s="39">
+        <v>767</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA72D34-1DF4-3542-A87E-E27A8A3DAEDA}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="144">
+      <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="48">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="48">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="80">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" ht="32">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="48">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="56"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="64">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="80">
+      <c r="A17" s="39">
+        <v>831</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>832</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39">
+        <v>833</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>313</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>321</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>712</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>316</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>318</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29">
+        <v>317</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="56"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29">
+        <v>250</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>371</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29">
+        <v>372</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="29">
+        <v>373</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" ht="48">
+      <c r="A34" s="60">
+        <v>222</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:12" ht="32">
+      <c r="A35" s="60">
+        <v>675</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="64">
+      <c r="A36" s="39">
+        <v>767</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFDC5C-3558-A34A-85D8-E730B3A2A4A3}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="112">
+      <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>972</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="48">
+      <c r="A6" s="39">
+        <v>69</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="48">
+      <c r="A7" s="39">
+        <v>79</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="48">
+      <c r="A8" s="39">
+        <v>78</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" ht="64">
+      <c r="A9" s="39">
+        <v>74</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="64">
+      <c r="A10" s="29">
+        <v>63</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="29"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="29"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="39"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="56"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="29"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="60"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="60"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="39"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2603,81 +5097,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="78" t="s">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="80" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -2705,12 +5199,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2796,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2830,34 +5324,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3790,6 +6284,148 @@
       <c r="F45" s="53" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" ht="16">
+      <c r="A47" s="39">
+        <v>972</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+    </row>
+    <row r="48" spans="1:12" ht="48">
+      <c r="A48" s="39">
+        <v>69</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="1:12" ht="48">
+      <c r="A49" s="39">
+        <v>79</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" ht="48">
+      <c r="A50" s="39">
+        <v>78</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+    </row>
+    <row r="51" spans="1:12" ht="64">
+      <c r="A51" s="39">
+        <v>74</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+    </row>
+    <row r="52" spans="1:12" ht="64">
+      <c r="A52" s="29">
+        <v>63</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3840,34 +6476,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4844,34 +7480,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5154,34 +7790,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5464,34 +8100,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5774,34 +8410,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6048,7 +8684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -6080,34 +8716,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>

--- a/banks/surety/catalogs/Surety_MCH_OperationList.xlsx
+++ b/banks/surety/catalogs/Surety_MCH_OperationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/surety/catalogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E681EE-6E29-8A4A-9342-8F05682D2D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB920CE-4872-1A41-8E72-1CB0AFDCCB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3140" windowWidth="34580" windowHeight="18720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69360" yWindow="10120" windowWidth="34580" windowHeight="18720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="126">
   <si>
     <t>Author:</t>
   </si>
@@ -1047,38 +1047,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1092,23 +1065,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,6 +1105,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,51 +1517,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="78"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="64">
         <v>42895</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1577,228 +1577,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="73"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="73"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="73"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="73"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1811,286 +1811,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="70"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="70"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="64"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="64"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="66"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="66"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="64"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="64"/>
+      <c r="I32" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2101,6 +2053,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2157,34 +2157,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2632,7 +2632,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="20"/>
-    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="27.1640625" style="21" customWidth="1"/>
     <col min="3" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -2653,34 +2653,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2938,7 +2938,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="20"/>
-    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -2959,34 +2959,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3663,16 +3663,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA72D34-1DF4-3542-A87E-E27A8A3DAEDA}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="20"/>
-    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -3693,34 +3693,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="64">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="39">
         <v>830</v>
       </c>
@@ -4008,12 +4008,12 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" ht="80">
+    <row r="17" spans="1:12" ht="14" customHeight="1">
       <c r="A17" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>71</v>
@@ -4021,25 +4021,25 @@
       <c r="D17" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="46"/>
+      <c r="E17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" ht="14" customHeight="1">
       <c r="A18" s="39">
-        <v>832</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>91</v>
+        <v>833</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>71</v>
@@ -4058,27 +4058,15 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="36"/>
-      <c r="L18" s="46"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="14" customHeight="1">
-      <c r="A19" s="39">
-        <v>833</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -4100,26 +4088,38 @@
       <c r="K20" s="36"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="14" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="30"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>313</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>71</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>71</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>71</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>71</v>
@@ -4216,67 +4216,65 @@
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="34"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="29">
-        <v>318</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="A26" s="56"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="29">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+        <v>97</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="56"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="29">
+        <v>371</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -4284,12 +4282,12 @@
       <c r="K28" s="36"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>71</v>
@@ -4300,7 +4298,9 @@
       <c r="E29" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>71</v>
@@ -4335,77 +4335,63 @@
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>372</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>373</v>
-      </c>
-      <c r="B32" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-    </row>
-    <row r="34" spans="1:12" ht="48">
-      <c r="A34" s="60">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="48">
+      <c r="A32" s="60">
         <v>222</v>
       </c>
+      <c r="B32" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="32">
+      <c r="A33" s="60">
+        <v>675</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="64">
+      <c r="A34" s="39">
+        <v>767</v>
+      </c>
       <c r="B34" s="52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>71</v>
@@ -4416,45 +4402,7 @@
       <c r="E34" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:12" ht="32">
-      <c r="A35" s="60">
-        <v>675</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="64">
-      <c r="A36" s="39">
-        <v>767</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="53" t="s">
+      <c r="F34" s="53" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4480,13 +4428,13 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="20"/>
-    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="40.33203125" style="21" customWidth="1"/>
     <col min="3" max="10" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -4507,34 +4455,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5097,13 +5045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="82" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="83" t="s">
@@ -5115,63 +5063,63 @@
       <c r="F1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="80" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="V1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="80" t="s">
+      <c r="X1" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="80" t="s">
+      <c r="Y1" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="80" t="s">
+      <c r="Z1" s="85" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5199,12 +5147,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5264,16 +5212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5282,6 +5220,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5290,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5324,34 +5272,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5755,12 +5703,12 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
+    <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>71</v>
@@ -5768,25 +5716,25 @@
       <c r="D22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>91</v>
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>71</v>
@@ -5805,27 +5753,15 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5847,26 +5783,38 @@
       <c r="K25" s="36"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>71</v>
@@ -5889,10 +5837,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>71</v>
@@ -5915,10 +5863,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>71</v>
@@ -5941,10 +5889,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>71</v>
@@ -5963,40 +5911,38 @@
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="34"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>318</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="56"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="28"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="29">
+        <v>250</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -6005,12 +5951,12 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>71</v>
@@ -6021,7 +5967,9 @@
       <c r="E33" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -6031,10 +5979,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>71</v>
@@ -6057,10 +6005,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>71</v>
@@ -6082,24 +6030,12 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29">
-        <v>373</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A36" s="56"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -6107,26 +6043,38 @@
       <c r="K36" s="36"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="56"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="28"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="A37" s="29">
+        <v>601</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>71</v>
@@ -6137,7 +6085,9 @@
       <c r="E38" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59" t="s">
@@ -6147,40 +6097,36 @@
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>600</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>71</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="56"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
-      <c r="I39" s="59" t="s">
-        <v>71</v>
-      </c>
+      <c r="I39" s="59"/>
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="56"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="29">
+        <v>813</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="F40" s="59"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
@@ -6189,50 +6135,44 @@
       <c r="K40" s="59"/>
       <c r="L40" s="59"/>
     </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="29">
-        <v>813</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="60">
+        <v>222</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="16">
       <c r="A43" s="60">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>71</v>
@@ -6243,14 +6183,16 @@
       <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="60">
-        <v>675</v>
+      <c r="A44" s="39">
+        <v>767</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>71</v>
@@ -6265,54 +6207,58 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="39">
-        <v>767</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>71</v>
-      </c>
+    <row r="46" spans="1:12" ht="16">
+      <c r="A46" s="39">
+        <v>972</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
     </row>
     <row r="47" spans="1:12" ht="16">
       <c r="A47" s="39">
-        <v>972</v>
+        <v>69</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-    </row>
-    <row r="48" spans="1:12" ht="48">
+        <v>120</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" ht="16">
       <c r="A48" s="39">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>71</v>
@@ -6331,12 +6277,12 @@
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="1:12" ht="48">
+    <row r="49" spans="1:12" ht="16">
       <c r="A49" s="39">
-        <v>79</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>121</v>
+        <v>78</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>71</v>
@@ -6352,15 +6298,15 @@
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-    </row>
-    <row r="50" spans="1:12" ht="48">
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+    </row>
+    <row r="50" spans="1:12" ht="16">
       <c r="A50" s="39">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>71</v>
@@ -6376,15 +6322,15 @@
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-    </row>
-    <row r="51" spans="1:12" ht="64">
-      <c r="A51" s="39">
-        <v>74</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>123</v>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="1:12" ht="16">
+      <c r="A51" s="29">
+        <v>63</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>124</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>71</v>
@@ -6402,30 +6348,6 @@
       <c r="J51" s="53"/>
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
-    </row>
-    <row r="52" spans="1:12" ht="64">
-      <c r="A52" s="29">
-        <v>63</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6442,10 +6364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6476,34 +6398,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6909,10 +6831,10 @@
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>71</v>
@@ -6920,10 +6842,10 @@
       <c r="D22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>71</v>
       </c>
       <c r="G22" s="28"/>
@@ -6931,14 +6853,14 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>91</v>
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>71</v>
@@ -6960,24 +6882,12 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -6985,27 +6895,39 @@
       <c r="K24" s="36"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="42"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -7015,10 +6937,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>71</v>
@@ -7041,10 +6963,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>71</v>
@@ -7067,10 +6989,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>71</v>
@@ -7089,14 +7011,14 @@
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>71</v>
@@ -7117,38 +7039,36 @@
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>318</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="28"/>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="29">
+        <v>250</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -7159,10 +7079,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>71</v>
@@ -7173,7 +7093,9 @@
       <c r="E33" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -7183,10 +7105,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>71</v>
@@ -7209,10 +7131,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>71</v>
@@ -7233,39 +7155,39 @@
       <c r="K35" s="36"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="29">
-        <v>373</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="28"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+    </row>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>601</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="59"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59" t="s">
@@ -7277,10 +7199,10 @@
     </row>
     <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>71</v>
@@ -7291,35 +7213,23 @@
       <c r="E38" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
-      <c r="I38" s="59" t="s">
-        <v>71</v>
-      </c>
+      <c r="I38" s="59"/>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>600</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>71</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="56"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
       <c r="I39" s="59"/>
@@ -7327,58 +7237,62 @@
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="56"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="29">
+        <v>813</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-    </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="29">
-        <v>813</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="60">
+        <v>222</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="16">
       <c r="A43" s="60">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>71</v>
@@ -7389,14 +7303,16 @@
       <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="60">
-        <v>675</v>
+      <c r="A44" s="39">
+        <v>767</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>71</v>
@@ -7408,26 +7324,6 @@
         <v>71</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="39">
-        <v>767</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="53" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7480,34 +7376,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7790,34 +7686,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8100,34 +7996,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8410,34 +8306,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8682,10 +8578,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8716,34 +8612,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8809,9 +8705,7 @@
       <c r="E6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -8835,9 +8729,7 @@
       <c r="E7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -8861,9 +8753,7 @@
       <c r="E8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -9145,10 +9035,10 @@
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>71</v>
@@ -9156,23 +9046,23 @@
       <c r="D22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="53"/>
+      <c r="E22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>91</v>
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>71</v>
@@ -9183,7 +9073,7 @@
       <c r="E23" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -9192,24 +9082,12 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -9217,27 +9095,37 @@
       <c r="K24" s="36"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="42"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9247,10 +9135,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>71</v>
@@ -9267,14 +9155,14 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>71</v>
@@ -9285,9 +9173,7 @@
       <c r="E28" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
@@ -9295,36 +9181,36 @@
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>318</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="28"/>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>250</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -9335,10 +9221,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>71</v>
@@ -9359,10 +9245,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>71</v>
@@ -9383,10 +9269,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>71</v>
@@ -9405,37 +9291,37 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="29">
-        <v>373</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>71</v>
-      </c>
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="16">
+      <c r="A35" s="29">
+        <v>601</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="59"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -9445,10 +9331,10 @@
     </row>
     <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>71</v>
@@ -9467,22 +9353,12 @@
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
     </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>600</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>71</v>
-      </c>
+    <row r="37" spans="1:12">
+      <c r="A37" s="56"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
@@ -9491,58 +9367,62 @@
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="56"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
+    <row r="38" spans="1:12" ht="16">
+      <c r="A38" s="29">
+        <v>813</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-    </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>813</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="60">
+        <v>222</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="60">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>71</v>
@@ -9556,11 +9436,11 @@
       <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="60">
-        <v>675</v>
+      <c r="A42" s="39">
+        <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>71</v>
@@ -9572,24 +9452,6 @@
         <v>71</v>
       </c>
       <c r="F42" s="53"/>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="39">
-        <v>767</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
